--- a/matrixU.xlsx
+++ b/matrixU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqiwu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaqiwu/Desktop/MarchingSquares.js/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="460" windowWidth="22280" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7000" yWindow="460" windowWidth="21800" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Excel-&gt;Javascript" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>If greater than 1</t>
+  </si>
+  <si>
+    <t>clone 1</t>
+  </si>
+  <si>
+    <t>clone2</t>
+  </si>
+  <si>
+    <t>clone 3</t>
   </si>
 </sst>
 </file>
@@ -84,24 +93,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -648,7 +666,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -660,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F73"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -673,29 +691,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I1" s="3">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3">
-        <v>4</v>
-      </c>
-      <c r="M1" s="3">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3">
-        <v>6</v>
-      </c>
-      <c r="O1" s="3">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3">
-        <v>8</v>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -716,8 +713,38 @@
         <f>IF(A2+B2+C2 &gt;1,-1,1)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="3">
+        <f>INDEX($A$2:$A$73,(ROW()-ROW($I$2))*8+(COLUMN()-COLUMN($I$2)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:P10" si="0">INDEX($A$2:$A$73,(ROW()-ROW($I$2))*8+(COLUMN()-COLUMN($I$2)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -730,12 +757,44 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F66" si="0">"["&amp;A3&amp;", "&amp; B3&amp;", "&amp;C3&amp;"]"&amp;","</f>
+        <f t="shared" ref="F3:F66" si="1">"["&amp;A3&amp;", "&amp; B3&amp;", "&amp;C3&amp;"]"&amp;","</f>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="1">IF(A3+B3+C3 &gt;1,-1,1)</f>
-        <v>1</v>
+        <f t="shared" ref="G3:G66" si="2">IF(A3+B3+C3 &gt;1,-1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I10" si="3">INDEX($A$2:$A$73,(ROW()-ROW($I$2))*8+(COLUMN()-COLUMN($I$2)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -749,12 +808,44 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -768,12 +859,44 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -787,12 +910,44 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -806,12 +961,44 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -825,12 +1012,44 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -844,12 +1063,44 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -863,12 +1114,44 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -882,11 +1165,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -901,12 +1184,15 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -920,12 +1206,44 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <f>INDEX($B$2:$B$73,(ROW()-ROW($I$13))*8+(COLUMN()-COLUMN($I$13)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" ref="J13:P22" si="4">INDEX($B$2:$B$73,(ROW()-ROW($I$13))*8+(COLUMN()-COLUMN($I$13)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -939,12 +1257,44 @@
         <v>0.7</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.7],</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14:I22" si="5">INDEX($B$2:$B$73,(ROW()-ROW($I$13))*8+(COLUMN()-COLUMN($I$13)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -958,12 +1308,44 @@
         <v>0.7</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.7],</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -977,15 +1359,47 @@
         <v>0.7</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.7],</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -996,15 +1410,47 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1015,15 +1461,47 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1034,15 +1512,47 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1053,15 +1563,47 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1072,15 +1614,47 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1091,15 +1665,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1110,15 +1684,18 @@
         <v>0.7</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.7],</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1129,15 +1706,47 @@
         <v>0.7</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.7],</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <f>INDEX($C$2:$C$73,(ROW()-ROW($I$24))*8+(COLUMN()-COLUMN($I$24)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" ref="J24:P34" si="6">INDEX($C$2:$C$73,(ROW()-ROW($I$24))*8+(COLUMN()-COLUMN($I$24)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1148,15 +1757,47 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" ref="I25:I34" si="7">INDEX($C$2:$C$73,(ROW()-ROW($I$24))*8+(COLUMN()-COLUMN($I$24)+1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1167,15 +1808,47 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1186,15 +1859,47 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1205,15 +1910,47 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1224,15 +1961,47 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1243,15 +2012,47 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1262,15 +2063,47 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1281,12 +2114,44 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1300,11 +2165,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1319,11 +2184,11 @@
         <v>0.6</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.6],</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1338,11 +2203,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1357,11 +2222,11 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0.7, 0, 0],</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1376,11 +2241,11 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0.7, 0, 0],</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1395,11 +2260,11 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0.7, 0, 0],</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1414,11 +2279,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1433,11 +2298,11 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1452,11 +2317,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1471,11 +2336,11 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1490,11 +2355,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1509,11 +2374,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0.7, 0, 0],</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1528,11 +2393,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0.7, 0, 0],</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1547,11 +2412,11 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0.7, 0, 0],</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1566,11 +2431,11 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1585,11 +2450,11 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1604,11 +2469,11 @@
         <v>0.4</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.4],</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1623,11 +2488,11 @@
         <v>0</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1642,11 +2507,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1661,11 +2526,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1680,11 +2545,11 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1699,11 +2564,11 @@
         <v>0</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1718,11 +2583,11 @@
         <v>0</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1737,11 +2602,11 @@
         <v>0</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0.7, 0],</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1756,11 +2621,11 @@
         <v>0.5</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.5],</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1775,11 +2640,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1794,11 +2659,11 @@
         <v>0.5</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0.5],</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1813,11 +2678,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1832,11 +2697,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1851,11 +2716,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1870,11 +2735,11 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1889,11 +2754,11 @@
         <v>0</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1908,11 +2773,11 @@
         <v>0</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1927,11 +2792,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1946,11 +2811,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" ref="F67:F73" si="2">"["&amp;A67&amp;", "&amp; B67&amp;", "&amp;C67&amp;"]"&amp;","</f>
+        <f t="shared" ref="F67:F73" si="8">"["&amp;A67&amp;", "&amp; B67&amp;", "&amp;C67&amp;"]"&amp;","</f>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" ref="G67:G103" si="3">IF(A67+B67+C67 &gt;1,-1,1)</f>
+        <f t="shared" ref="G67:G73" si="9">IF(A67+B67+C67 &gt;1,-1,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1965,11 +2830,11 @@
         <v>0</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1984,11 +2849,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2003,11 +2868,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2022,11 +2887,11 @@
         <v>0</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2041,11 +2906,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2060,17 +2925,22 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>[0, 0, 0],</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:P32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2083,7 +2953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection sqref="A1:C72"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0.7</v>
@@ -2636,7 +3506,7 @@
         <v>0.7</v>
       </c>
       <c r="C50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
